--- a/OL6/Certificacion_OL6.xlsx
+++ b/OL6/Certificacion_OL6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="11715" windowHeight="7500"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="11715" windowHeight="7500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OL6" sheetId="1" r:id="rId1"/>
@@ -15,11 +15,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OL6'!$A$3:$C$38</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
   <si>
     <t>Oracle linux 5</t>
   </si>
@@ -234,6 +235,27 @@
 Oracle Linux packages as well as packages from the Oracle VM installation media via a yum client.
 Oracle provides all errata and updates for Oracle Linux via the Public Yum service, which includes updates to the base distribution, but does not include Oracle-specific software.
 F: By default, all new installations of Oracle Linux 6 Update 5 are automatically configured to use the public yum update service. If you subsequently register the system with ULN, the public yum service is automatically disabled.</t>
+  </si>
+  <si>
+    <t>Upstart</t>
+  </si>
+  <si>
+    <t>initctl</t>
+  </si>
+  <si>
+    <t>initctl log-priority info</t>
+  </si>
+  <si>
+    <t>initctl log-priority</t>
+  </si>
+  <si>
+    <t>asmlib</t>
+  </si>
+  <si>
+    <t>is include in UEK</t>
+  </si>
+  <si>
+    <t>asmlib oracleasm -support rpm….. Sepàratelly</t>
   </si>
 </sst>
 </file>
@@ -418,17 +440,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,7 +756,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
@@ -745,11 +767,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1180,7 +1202,7 @@
       <c r="B39" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="26" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1188,10 +1210,10 @@
       <c r="A40" s="21">
         <v>6</v>
       </c>
-      <c r="B40" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="29" t="s">
+      <c r="B40" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="28" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1254,10 +1276,10 @@
       <c r="A46" s="25">
         <v>7</v>
       </c>
-      <c r="B46" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="29" t="s">
+      <c r="B46" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="28" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1365,12 +1387,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>